--- a/PM2 SCHEDULER.xlsx
+++ b/PM2 SCHEDULER.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27804"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD3445F-04A3-4A7D-A94E-0C8357C84489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C7E60A-570D-4EA3-8892-9EE24779BEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="168">
   <si>
     <t>Full Roster</t>
   </si>
@@ -165,6 +165,42 @@
     <t>05-25-24-C</t>
   </si>
   <si>
+    <t>05-29-24-A</t>
+  </si>
+  <si>
+    <t>05-29-24-B</t>
+  </si>
+  <si>
+    <t>05-29-24-C</t>
+  </si>
+  <si>
+    <t>05-30-24-A</t>
+  </si>
+  <si>
+    <t>05-30-24-B</t>
+  </si>
+  <si>
+    <t>05-30-24-C</t>
+  </si>
+  <si>
+    <t>05-31-24-A</t>
+  </si>
+  <si>
+    <t>05-31-24-B</t>
+  </si>
+  <si>
+    <t>05-31-24-C</t>
+  </si>
+  <si>
+    <t>06-01-24-A</t>
+  </si>
+  <si>
+    <t>06-01-24-B</t>
+  </si>
+  <si>
+    <t>06-01-24-C</t>
+  </si>
+  <si>
     <t>Ali Ronsom</t>
   </si>
   <si>
@@ -207,15 +243,18 @@
     <t xml:space="preserve"> POST-LACE</t>
   </si>
   <si>
+    <t>WINDERS</t>
+  </si>
+  <si>
+    <t>ROUTING Q</t>
+  </si>
+  <si>
     <t>Andrew Blake</t>
   </si>
   <si>
     <t>AJ</t>
   </si>
   <si>
-    <t>WINDERS</t>
-  </si>
-  <si>
     <t>ROUTING C</t>
   </si>
   <si>
@@ -231,21 +270,27 @@
     <t>BLOCKER 1</t>
   </si>
   <si>
+    <t>BLOCKER - 2</t>
+  </si>
+  <si>
+    <t>EGRESS</t>
+  </si>
+  <si>
     <t>Arnold Salto Cortez</t>
   </si>
   <si>
     <t>Arnold</t>
   </si>
   <si>
-    <t>EGRESS</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLOCKER 2 </t>
   </si>
   <si>
     <t>INGRESS</t>
   </si>
   <si>
+    <t>PRE-TUB S</t>
+  </si>
+  <si>
     <t>Ben Marvin</t>
   </si>
   <si>
@@ -393,6 +438,9 @@
     <t xml:space="preserve">WINDERS </t>
   </si>
   <si>
+    <t>FLEXED</t>
+  </si>
+  <si>
     <t>Justin DeMarr</t>
   </si>
   <si>
@@ -478,6 +526,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rotation</t>
   </si>
 </sst>
 </file>
@@ -866,7 +923,7 @@
   <dimension ref="A1:BV53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR27" sqref="AR27"/>
+      <selection activeCell="BE28" sqref="BE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -896,8 +953,8 @@
     <col min="24" max="24" width="16.28515625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="35" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="92" width="15.7109375" customWidth="1"/>
+    <col min="27" max="49" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="50" max="92" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74">
@@ -1033,18 +1090,42 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
@@ -1060,149 +1141,173 @@
     </row>
     <row r="2" spans="1:74">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
@@ -1224,149 +1329,173 @@
     </row>
     <row r="3" spans="1:74">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
+      <c r="BB3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -1388,149 +1517,173 @@
     </row>
     <row r="4" spans="1:74">
       <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
+      <c r="AX4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
@@ -1552,149 +1705,173 @@
     </row>
     <row r="5" spans="1:74">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AP5" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
@@ -1716,149 +1893,173 @@
     </row>
     <row r="6" spans="1:74">
       <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
@@ -1880,149 +2081,173 @@
     </row>
     <row r="7" spans="1:74">
       <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
+      <c r="AY7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
@@ -2044,149 +2269,173 @@
     </row>
     <row r="8" spans="1:74">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
@@ -2208,149 +2457,173 @@
     </row>
     <row r="9" spans="1:74">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
@@ -2372,149 +2645,173 @@
     </row>
     <row r="10" spans="1:74">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="M10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="AL10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
+      <c r="BD10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
@@ -2536,149 +2833,173 @@
     </row>
     <row r="11" spans="1:74">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AR11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
+      <c r="AV11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
@@ -2700,149 +3021,173 @@
     </row>
     <row r="12" spans="1:74">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
+      <c r="AW12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
@@ -2864,149 +3209,173 @@
     </row>
     <row r="13" spans="1:74">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="W13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AL13" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
@@ -3028,149 +3397,173 @@
     </row>
     <row r="14" spans="1:74">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="O14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="Q14" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="X14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="AN14" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AO14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AP14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
+      <c r="BC14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
@@ -3192,149 +3585,173 @@
     </row>
     <row r="15" spans="1:74">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AR15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
@@ -3356,10 +3773,10 @@
     </row>
     <row r="16" spans="1:74">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3395,44 +3812,68 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
@@ -3454,149 +3895,173 @@
     </row>
     <row r="17" spans="1:74">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="S17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="V17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
+      <c r="AZ17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
@@ -3618,149 +4083,173 @@
     </row>
     <row r="18" spans="1:74">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AB18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE18" s="1" t="s">
+      <c r="BD18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
@@ -3782,149 +4271,173 @@
     </row>
     <row r="19" spans="1:74">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
@@ -3946,149 +4459,173 @@
     </row>
     <row r="20" spans="1:74">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
+      <c r="BB20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
@@ -4110,149 +4647,173 @@
     </row>
     <row r="21" spans="1:74">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
@@ -4274,149 +4835,173 @@
     </row>
     <row r="22" spans="1:74">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
+      <c r="AZ22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
@@ -4438,149 +5023,173 @@
     </row>
     <row r="23" spans="1:74">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AY23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
+      <c r="BC23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
@@ -4602,149 +5211,173 @@
     </row>
     <row r="24" spans="1:74">
       <c r="A24" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="AG24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="1" t="s">
+      <c r="AH24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U24" s="1" t="s">
+      <c r="AQ24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
+      <c r="BB24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD24" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
@@ -4766,149 +5399,173 @@
     </row>
     <row r="25" spans="1:74">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1"/>
@@ -4930,149 +5587,173 @@
     </row>
     <row r="26" spans="1:74">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T26" s="1" t="s">
+      <c r="AG26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AN26" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD26" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
@@ -5094,149 +5775,173 @@
     </row>
     <row r="27" spans="1:74">
       <c r="A27" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="X27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AJ27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD27" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
@@ -5258,149 +5963,173 @@
     </row>
     <row r="28" spans="1:74">
       <c r="A28" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD28" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
@@ -5438,7 +6167,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -5579,10 +6308,18 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
